--- a/data/trans_orig/Q04C1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q04C1_2023-Habitat-trans_orig.xlsx
@@ -563,7 +563,7 @@
         <v>21.8601429336492</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>24.48896290443778</v>
+        <v>24.48896290443779</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>23.18320922325148</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>20.14673949659874</v>
+        <v>20.2110168144335</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>23.31247309427181</v>
+        <v>23.19028768130203</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22.08176421779275</v>
+        <v>22.10761750787855</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>23.47326236968939</v>
+        <v>23.54016913033032</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>25.82313661764402</v>
+        <v>25.76086482224673</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24.23769965354195</v>
+        <v>24.12964241832069</v>
       </c>
     </row>
     <row r="7">
@@ -618,10 +618,10 @@
         <v>18.89190060917678</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>20.80402630141322</v>
+        <v>20.80402630141323</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19.84470687872082</v>
+        <v>19.84470687872083</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>17.57574333771548</v>
+        <v>17.70478169162745</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>19.75122698748763</v>
+        <v>19.70232888097505</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19.04829761838933</v>
+        <v>19.02451917981221</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>19.95742328041747</v>
+        <v>20.01781091519942</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>21.96131541763694</v>
+        <v>21.92922312102352</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20.68434070498142</v>
+        <v>20.61265694002612</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>16.19779671907581</v>
+        <v>16.21715678530377</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>18.17288413117885</v>
+        <v>18.12359165347492</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17.62132408069414</v>
+        <v>17.62989525922541</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.90924847819347</v>
+        <v>19.02961983470112</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>20.55365660297286</v>
+        <v>20.62068637305491</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19.53410908446904</v>
+        <v>19.42622040039599</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>18.88495626245756</v>
+        <v>18.89260438727571</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>20.79002006086037</v>
+        <v>20.77312933131144</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20.18327831120204</v>
+        <v>20.2031450469534</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>21.30382162097541</v>
+        <v>21.24728934103564</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>23.05862725622918</v>
+        <v>22.99442494468592</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21.83583259824669</v>
+        <v>21.92016894602926</v>
       </c>
     </row>
     <row r="16">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>18.89752195991934</v>
+        <v>18.9497804360668</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>20.82889385323972</v>
+        <v>21.03674286122095</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20.11206140711054</v>
+        <v>20.10480030046553</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>20.22256430486456</v>
+        <v>20.25506733801778</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.0617409043046</v>
+        <v>22.2401434528935</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21.03438984394537</v>
+        <v>20.99915540760027</v>
       </c>
     </row>
     <row r="19">
